--- a/Tabela  1b - Total de nascimentos com média móvel.xlsx
+++ b/Tabela  1b - Total de nascimentos com média móvel.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,141 +631,161 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>2013.333333333333</v>
+        <v>2013</v>
       </c>
       <c r="B14">
-        <v>44716.33333333334</v>
+        <v>44249.33333333334</v>
       </c>
       <c r="C14">
-        <v>22875</v>
+        <v>22602</v>
       </c>
       <c r="D14">
-        <v>21828.33333333333</v>
+        <v>21636.33333333333</v>
       </c>
       <c r="E14">
-        <v>22882</v>
+        <v>22608</v>
       </c>
       <c r="F14">
-        <v>21834.33333333333</v>
+        <v>21641.33333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2014.666666666667</v>
+        <v>2014</v>
       </c>
       <c r="B15">
-        <v>44664</v>
+        <v>45124.33333333334</v>
       </c>
       <c r="C15">
-        <v>22808</v>
+        <v>23079.66666666667</v>
       </c>
       <c r="D15">
-        <v>21844.66666666667</v>
+        <v>22032.33333333333</v>
       </c>
       <c r="E15">
-        <v>22814</v>
+        <v>23086.33333333333</v>
       </c>
       <c r="F15">
-        <v>21850</v>
+        <v>22038</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B16">
-        <v>44676.66666666666</v>
+        <v>44727.66666666666</v>
       </c>
       <c r="C16">
-        <v>22815.66666666667</v>
+        <v>22872.33333333333</v>
       </c>
       <c r="D16">
-        <v>21852.66666666667</v>
+        <v>21847.33333333333</v>
       </c>
       <c r="E16">
-        <v>22820</v>
+        <v>22876.66666666667</v>
       </c>
       <c r="F16">
-        <v>21856.66666666667</v>
+        <v>21851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B17">
-        <v>44034.33333333334</v>
+        <v>44676.66666666666</v>
       </c>
       <c r="C17">
-        <v>22389.33333333333</v>
+        <v>22815.66666666667</v>
       </c>
       <c r="D17">
-        <v>21637.33333333333</v>
+        <v>21852.66666666667</v>
       </c>
       <c r="E17">
-        <v>22393.33333333333</v>
+        <v>22820</v>
       </c>
       <c r="F17">
-        <v>21641</v>
+        <v>21856.66666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B18">
-        <v>43728.33333333334</v>
+        <v>44034.33333333334</v>
       </c>
       <c r="C18">
-        <v>22265.33333333333</v>
+        <v>22389.33333333333</v>
       </c>
       <c r="D18">
-        <v>21453.66666666667</v>
+        <v>21637.33333333333</v>
       </c>
       <c r="E18">
-        <v>22270.33333333333</v>
+        <v>22393.33333333333</v>
       </c>
       <c r="F18">
-        <v>21458</v>
+        <v>21641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B19">
-        <v>41992.66666666666</v>
+        <v>43728.33333333334</v>
       </c>
       <c r="C19">
-        <v>21411.33333333333</v>
+        <v>22265.33333333333</v>
       </c>
       <c r="D19">
-        <v>20573</v>
+        <v>21453.66666666667</v>
       </c>
       <c r="E19">
-        <v>21416</v>
+        <v>22270.33333333333</v>
       </c>
       <c r="F19">
-        <v>20576.66666666667</v>
+        <v>21458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20">
+        <v>41992.66666666666</v>
+      </c>
+      <c r="C20">
+        <v>21411.33333333333</v>
+      </c>
+      <c r="D20">
+        <v>20573</v>
+      </c>
+      <c r="E20">
+        <v>21416</v>
+      </c>
+      <c r="F20">
+        <v>20576.66666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
         <v>2020</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>39939.33333333334</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>20398</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>19534.66666666667</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>20401.66666666667</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>19537.66666666667</v>
       </c>
     </row>
